--- a/ofc/estimates/jcb log book (1).xlsx
+++ b/ofc/estimates/jcb log book (1).xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,10 +15,10 @@
     <sheet name="ESTIMATE (3)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'ESTIMATE (3)'!$A$1:$H$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'ESTIMATE (3)'!$A$1:$H$25</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'ESTIMATE (3)'!$1:$11</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -126,13 +126,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="[$-4000439]0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,13 +650,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
@@ -669,7 +669,7 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -679,7 +679,7 @@
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:8" ht="45">
       <c r="A2" s="28" t="s">
         <v>4</v>
       </c>
@@ -691,7 +691,7 @@
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -703,7 +703,7 @@
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
     </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="27">
       <c r="A4" s="29" t="s">
         <v>6</v>
       </c>
@@ -715,7 +715,7 @@
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
     </row>
-    <row r="5" spans="1:8" ht="35.25" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="35.25">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -725,7 +725,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="33.75" customHeight="1">
       <c r="A6" s="30" t="s">
         <v>25</v>
       </c>
@@ -737,7 +737,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
     </row>
-    <row r="7" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:8" ht="33.75" customHeight="1">
       <c r="A7" s="31" t="s">
         <v>15</v>
       </c>
@@ -749,7 +749,7 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:8" ht="33.75" customHeight="1">
       <c r="A8" s="31" t="s">
         <v>16</v>
       </c>
@@ -761,7 +761,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:8" ht="33.75" customHeight="1">
       <c r="A9" s="31" t="s">
         <v>17</v>
       </c>
@@ -773,14 +773,14 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="35.25" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:8" ht="33">
       <c r="E10" s="10"/>
       <c r="G10" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="59.25" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>2</v>
       </c>
@@ -806,7 +806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="65.25" customHeight="1">
       <c r="A12" s="17">
         <v>1</v>
       </c>
@@ -820,7 +820,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="65.25" customHeight="1">
       <c r="A13" s="17">
         <v>2</v>
       </c>
@@ -832,218 +832,158 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
-        <v>3</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="3"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
-        <v>4</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="3"/>
+      <c r="E14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
-        <v>5</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="3"/>
+      <c r="E15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
-        <v>6</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="3"/>
+      <c r="E16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
-        <v>7</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="3"/>
+      <c r="E17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="19" t="s">
+      <c r="E18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="21"/>
-    </row>
-    <row r="25" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="21"/>
-    </row>
-    <row r="28" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="25" t="s">
+      <c r="F18" s="12"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25">
+      <c r="B23" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="32" t="s">
+      <c r="C23" s="25"/>
+      <c r="D23" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25" t="s">
+      <c r="E23" s="32"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="30" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
+    <row r="24" spans="1:8" ht="20.25">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25">
+      <c r="B25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="26" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="16" t="s">
+      <c r="E25" s="26"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="1" t="s">
+    <row r="29" spans="1:8">
+      <c r="C29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="1" t="s">
+    <row r="30" spans="1:8">
+      <c r="C30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="1" t="str">
-        <f>E34</f>
+      <c r="E30" s="1" t="str">
+        <f>E29</f>
         <v>without vat</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
@@ -1052,7 +992,7 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
